--- a/Tableau_mini_projet/Tableau Backlog.xlsx
+++ b/Tableau_mini_projet/Tableau Backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3DVP\GIT\mini_projet_tache\Gestionnaire_de_Taches\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3DVP\GIT\mini_projet_tache\Gestionnaire_de_Taches\Tableau_mini_projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56C9D98E-1DC8-414D-B789-6C2B445F15E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBE1E2A-8E36-49EE-99AF-462EC518ED66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B6B53E60-D2DA-49C6-9BA1-B9CC83426265}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
   <si>
     <t>Column1</t>
   </si>
@@ -72,21 +72,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>-----</t>
-  </si>
-  <si>
-    <t>----------------------------------------</t>
-  </si>
-  <si>
-    <t>------------</t>
-  </si>
-  <si>
-    <t>----------</t>
-  </si>
-  <si>
-    <t>--------</t>
   </si>
   <si>
     <t xml:space="preserve"> 1   </t>
@@ -323,9 +308,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -717,7 +703,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -752,8 +738,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>33</v>
+      <c r="A2" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -802,19 +788,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>7</v>
@@ -824,21 +810,11 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
@@ -848,19 +824,19 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>7</v>
@@ -871,19 +847,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>7</v>
@@ -894,19 +870,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>7</v>
@@ -917,19 +893,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>7</v>
@@ -940,19 +916,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>7</v>
@@ -963,19 +939,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>7</v>
